--- a/KatiaOuferhat/Modeles/Modelequantification.xlsx
+++ b/KatiaOuferhat/Modeles/Modelequantification.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katia\Documents\GitHub\GSI-AVUN_18-19\KatiaOuferhat\Modeles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F653ED-6219-47DF-9D83-F035CA548289}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ABA060-EC2F-49DB-9780-C80FBBC3B2C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{37E3BC5C-6FC7-40CA-85AA-1ED350B4A190}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,7 @@
         <v>12</v>
       </c>
       <c r="J9">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
